--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/146.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/146.xlsx
@@ -479,13 +479,13 @@
         <v>-10.37510787417238</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.74939868512975</v>
+        <v>-14.72841136478714</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.658941499217044</v>
+        <v>0.07420445866781128</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.431380282396471</v>
+        <v>-8.14511708076213</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.48587533217714</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.35583415275851</v>
+        <v>-15.11405823729302</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.695874885533553</v>
+        <v>-0.0006311443754949309</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.476443988777692</v>
+        <v>-8.247027566082126</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.55377442217431</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.96640678808524</v>
+        <v>-15.50199626279621</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.59823249093996</v>
+        <v>0.140844280132197</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.982013171959908</v>
+        <v>-8.057542667053825</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.551101858572</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.58779366555925</v>
+        <v>-15.88590185902414</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.540390696985214</v>
+        <v>0.1103784914195004</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.66346435151787</v>
+        <v>-8.111509139367421</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.48908591206973</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.34717341498504</v>
+        <v>-16.54028133965929</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.601780505010068</v>
+        <v>0.075173289078099</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.508516947386043</v>
+        <v>-8.107201771732493</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.36366357949944</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.9988558812348</v>
+        <v>-17.12794244501301</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.531841423229567</v>
+        <v>0.221663065574172</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.957723766834627</v>
+        <v>-7.901364586454875</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.18270646853432</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.72901361071786</v>
+        <v>-17.7678680233109</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.560186258881904</v>
+        <v>0.2473632560524802</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.615242216797915</v>
+        <v>-7.939633387661241</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.942002057224471</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.35055759582596</v>
+        <v>-18.32325660215976</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.563747365254854</v>
+        <v>0.2893764558715792</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.365297063246523</v>
+        <v>-7.727904666104846</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.649955289587318</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.20517075612247</v>
+        <v>-19.10045497575314</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.504910556284137</v>
+        <v>0.4936163802025059</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.15100225033315</v>
+        <v>-7.607403110749599</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.307196079479667</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.8550857614886</v>
+        <v>-19.74767296673387</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.496884974642159</v>
+        <v>0.5380647483501658</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.036078015988479</v>
+        <v>-7.586442333899996</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.932684468566217</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.62143061602619</v>
+        <v>-20.53990130398956</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.437301904409463</v>
+        <v>0.5933142663422499</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.760131548993418</v>
+        <v>-7.487621632050648</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.542066054776981</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.25446964302933</v>
+        <v>-21.26810828034921</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.406286238977414</v>
+        <v>0.6277601151188311</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.471393902121991</v>
+        <v>-7.180306007446812</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.169767351010963</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.21583744069728</v>
+        <v>-22.30730981841121</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.266237875479471</v>
+        <v>0.761497988647063</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.082382307785785</v>
+        <v>-6.780689647808807</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.842754366539104</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.99786687403926</v>
+        <v>-23.04542766802204</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.107925749517319</v>
+        <v>0.959885653607738</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.832620446474177</v>
+        <v>-6.331099968223934</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.594355762433138</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.86393579932228</v>
+        <v>-24.05868026185175</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8135976893324751</v>
+        <v>1.21786948110395</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.42715182746592</v>
+        <v>-5.822804402696761</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.444300781412794</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.74702471829955</v>
+        <v>-25.09725336937735</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6993673470384152</v>
+        <v>1.319989443269413</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.155709112648414</v>
+        <v>-5.402227266209152</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.407721608483407</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.42309814474344</v>
+        <v>-25.8448500462456</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5370620687095371</v>
+        <v>1.381051943723224</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.035233741898851</v>
+        <v>-4.952480478990179</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.486863633344511</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.15184190551959</v>
+        <v>-26.68696005732826</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3244168859542223</v>
+        <v>1.581756946286885</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.633208398537968</v>
+        <v>-4.267124609831503</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.675568644152627</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.65414119634526</v>
+        <v>-27.24028005232813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04320188553860395</v>
+        <v>1.730564060385943</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.220656843692338</v>
+        <v>-3.644389225164802</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.961067199612834</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.36407131793785</v>
+        <v>-28.0501699061173</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1839310487843175</v>
+        <v>1.758162634776302</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.194184207346368</v>
+        <v>-3.322737528949276</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.320601946757805</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.02518024223365</v>
+        <v>-28.69639288208206</v>
       </c>
       <c r="F22" t="n">
-        <v>0.479607616161859</v>
+        <v>1.90628894912759</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.104344825246443</v>
+        <v>-2.891607996371237</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.730778078826717</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.371000329495</v>
+        <v>-29.12352926229337</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7038002100235762</v>
+        <v>2.100892938567007</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.929091259407099</v>
+        <v>-2.56585840936625</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.158575898610014</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.82269786983739</v>
+        <v>-29.60810157507134</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7515478384873512</v>
+        <v>2.114744594973553</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.033083420878929</v>
+        <v>-2.431557566815824</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.577638078358389</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.20085594511781</v>
+        <v>-30.01728840808664</v>
       </c>
       <c r="F25" t="n">
-        <v>1.117634810547695</v>
+        <v>2.305499447377501</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.025686269773353</v>
+        <v>-2.195922300270439</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.954833973996081</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.31652644072446</v>
+        <v>-30.26627782353059</v>
       </c>
       <c r="F26" t="n">
-        <v>1.221286572145641</v>
+        <v>2.312569290912034</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.171325046584714</v>
+        <v>-2.01730401260077</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.27005552521711</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.30459935283565</v>
+        <v>-30.11919889340664</v>
       </c>
       <c r="F27" t="n">
-        <v>1.303244387934846</v>
+        <v>2.385833817614333</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.164831264375218</v>
+        <v>-1.919465233464551</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.4991494571193</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.23187161054986</v>
+        <v>-30.04848736575848</v>
       </c>
       <c r="F28" t="n">
-        <v>1.394458461833151</v>
+        <v>2.423984788095122</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.045089062584792</v>
+        <v>-1.605551088228485</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.63234447220848</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.1875803500363</v>
+        <v>-30.05054285730463</v>
       </c>
       <c r="F29" t="n">
-        <v>1.474530986013148</v>
+        <v>2.397826367017354</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.201594450754785</v>
+        <v>-1.661468313665497</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.65928609849572</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.1030826274958</v>
+        <v>-29.85089833127115</v>
       </c>
       <c r="F30" t="n">
-        <v>1.459134437871278</v>
+        <v>2.292066744661891</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.453896218817688</v>
+        <v>-1.854488134461064</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.58302702082216</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.74092334628797</v>
+        <v>-29.46949336488598</v>
       </c>
       <c r="F31" t="n">
-        <v>1.505507374536672</v>
+        <v>2.314716428578077</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.605531270330559</v>
+        <v>-2.002090756698684</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.40767811389786</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.40214691795547</v>
+        <v>-29.10120688594823</v>
       </c>
       <c r="F32" t="n">
-        <v>1.515038571005449</v>
+        <v>2.360775149975269</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.892540733226878</v>
+        <v>-2.335957571465541</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.14868025864802</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.16192934541548</v>
+        <v>-28.75314801490094</v>
       </c>
       <c r="F33" t="n">
-        <v>1.497049746900917</v>
+        <v>2.383136803228937</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.024275484420325</v>
+        <v>-2.391102351034891</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.821433707468548</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.54050319103295</v>
+        <v>-28.10174048701086</v>
       </c>
       <c r="F34" t="n">
-        <v>1.334390976395312</v>
+        <v>2.3161042126793</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.162648033154529</v>
+        <v>-2.709127479363259</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.449315473320507</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.09027198860883</v>
+        <v>-27.55339556709085</v>
       </c>
       <c r="F35" t="n">
-        <v>1.241501087733266</v>
+        <v>2.265725031344338</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.214991059915749</v>
+        <v>-2.838296139199728</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.051486916107958</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.55596201733515</v>
+        <v>-26.91949244810015</v>
       </c>
       <c r="F36" t="n">
-        <v>1.161336917433377</v>
+        <v>2.250983098344554</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.122808155607157</v>
+        <v>-2.958051433292996</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.651994943505093</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.88706317284852</v>
+        <v>-26.25699573970313</v>
       </c>
       <c r="F37" t="n">
-        <v>1.159975317937838</v>
+        <v>2.326473316529947</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.15264551378345</v>
+        <v>-3.06950620738461</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.267201996415091</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.40542353590711</v>
+        <v>-25.70273309889866</v>
       </c>
       <c r="F38" t="n">
-        <v>1.113589288969602</v>
+        <v>2.428881309357928</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.044581646127843</v>
+        <v>-3.300755552478018</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.916944397578926</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.8533473096772</v>
+        <v>-25.06101387511146</v>
       </c>
       <c r="F39" t="n">
-        <v>1.05517143368982</v>
+        <v>2.525764350386701</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.92706513582051</v>
+        <v>-3.466635029482688</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.610080316065103</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.31221624862298</v>
+        <v>-24.48475616553288</v>
       </c>
       <c r="F40" t="n">
-        <v>1.007358343711837</v>
+        <v>2.614399240625187</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.183412425461506</v>
+        <v>-3.690055177476743</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.359602046577757</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.60252178848154</v>
+        <v>-23.81080369214935</v>
       </c>
       <c r="F41" t="n">
-        <v>1.027350290151152</v>
+        <v>2.733198796611009</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.075492573137158</v>
+        <v>-3.816278069173824</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.166482519743214</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.91716591932286</v>
+        <v>-23.12057748633355</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9648214517790688</v>
+        <v>2.856056966477766</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.298389029017544</v>
+        <v>-4.32573884965391</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.037491626990613</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.33832902608447</v>
+        <v>-22.57870016401735</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9138793014219126</v>
+        <v>2.953358961197474</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.385060073829771</v>
+        <v>-4.570538728188504</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.967098133591715</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.61928666171403</v>
+        <v>-21.71589122214192</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9608282994123424</v>
+        <v>2.986875256472293</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.270999931472653</v>
+        <v>-4.775092867787633</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.956741626302157</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.07370421769362</v>
+        <v>-21.1492825397577</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9916213956960821</v>
+        <v>3.078521376364376</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.375934738749088</v>
+        <v>-4.986088420384889</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.995974206767051</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.50980564199764</v>
+        <v>-20.56122866531873</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9892516888817297</v>
+        <v>3.255005618670843</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.384929150801354</v>
+        <v>-5.254781751605634</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.082031358339144</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.06471971459032</v>
+        <v>-20.12769014901781</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9149005010435673</v>
+        <v>3.295015696155158</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.37329009357506</v>
+        <v>-5.396767775924153</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.202872977448095</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.44096313030196</v>
+        <v>-19.38089210262292</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9485215347411199</v>
+        <v>3.379670526329759</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.503885814421277</v>
+        <v>-5.613694141708712</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.353081412485636</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.91889446218529</v>
+        <v>-18.88106725703434</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8697582408452958</v>
+        <v>3.382367540715154</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.447772204441639</v>
+        <v>-5.690074636487342</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.522561433087704</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.32996340345593</v>
+        <v>-18.29176961382541</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7405110271917761</v>
+        <v>3.347646753578897</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.346725811109197</v>
+        <v>-5.781498187231115</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.70471883258837</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.6554479610502</v>
+        <v>-17.65217134309857</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7812280890295441</v>
+        <v>3.454951267669684</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.284825403273516</v>
+        <v>-5.828931600426689</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.891265999677358</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.02442514868469</v>
+        <v>-17.03819470903298</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7304692309121722</v>
+        <v>3.419235465517455</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.27659034478607</v>
+        <v>-5.881248442582226</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.073786712224715</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.36763668432666</v>
+        <v>-16.43679977799829</v>
       </c>
       <c r="F53" t="n">
-        <v>0.908367441925546</v>
+        <v>3.561653535829751</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.37792476878103</v>
+        <v>-6.0700656341656</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.244792127216764</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.81487965834899</v>
+        <v>-15.80482122752533</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8275093795750458</v>
+        <v>3.506482571654717</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.458141308292286</v>
+        <v>-6.215364011103075</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.394686248636171</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.23134262839041</v>
+        <v>-15.17916625932493</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6822764641517786</v>
+        <v>3.53054622427781</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.580659078285159</v>
+        <v>-6.402989803127852</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.516675516954882</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.88789224794341</v>
+        <v>-14.77471883993833</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7181755585437914</v>
+        <v>3.500041158656588</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.756397059329648</v>
+        <v>-6.571029510101406</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.601004139301695</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.27163755318337</v>
+        <v>-14.10703757961598</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6053330003509544</v>
+        <v>3.437590874101555</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.887018964781548</v>
+        <v>-6.715974394862155</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.642630302127088</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.75496291383749</v>
+        <v>-13.59777318367852</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5820156089898403</v>
+        <v>3.418790327220836</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.196717388502579</v>
+        <v>-7.010210808927106</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.634551412860761</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.11752487307953</v>
+        <v>-13.00259709649365</v>
       </c>
       <c r="F59" t="n">
-        <v>0.545802299329626</v>
+        <v>3.306929691741129</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.291414014956783</v>
+        <v>-7.061192236192788</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.574968402067682</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.726470879500013</v>
+        <v>-12.4815365356958</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4329859257424725</v>
+        <v>3.182369522504947</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.47661773095584</v>
+        <v>-7.22876062026404</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.45980446158463</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.327430581187045</v>
+        <v>-12.08235222205157</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2780777985191696</v>
+        <v>3.023088566132508</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.576538186243893</v>
+        <v>-7.337413641547524</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.289715711548402</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.891535450374617</v>
+        <v>-11.58247500725163</v>
       </c>
       <c r="F62" t="n">
-        <v>0.08579114668273885</v>
+        <v>2.724269846072952</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.799329903701546</v>
+        <v>-7.484623494699893</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.064901647830688</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.523720294339165</v>
+        <v>-11.35417143029761</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.002267682230710689</v>
+        <v>2.61070721122382</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.845650471155573</v>
+        <v>-7.610388155797513</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.78910686245308</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.253455886777415</v>
+        <v>-10.98566238221154</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.06185075246340602</v>
+        <v>2.465408834286344</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.884835733560859</v>
+        <v>-7.540226504868703</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.465632951878209</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.128162548582095</v>
+        <v>-10.88088468256921</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2321030586172118</v>
+        <v>2.242263624651965</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.969425102221251</v>
+        <v>-7.504733271864784</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.100571352974499</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.930992467785701</v>
+        <v>-10.61342202781559</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3362785123288262</v>
+        <v>2.134513972264559</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.077894831264952</v>
+        <v>-7.581323243488881</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.699722290990693</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.784803814254988</v>
+        <v>-10.41691965446412</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5214429514193579</v>
+        <v>1.847871093847809</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.976272376607474</v>
+        <v>-7.432450667875614</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.272783877783916</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.732591710522184</v>
+        <v>-10.31343809280312</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7168062944235943</v>
+        <v>1.557064863127389</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.855810098160752</v>
+        <v>-7.395281620107954</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.829574992318175</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.54899834777266</v>
+        <v>-10.08952043730108</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7992616177207851</v>
+        <v>1.405770211488403</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.806844885532697</v>
+        <v>-7.262394746264434</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.384679852601338</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.583784596423126</v>
+        <v>-10.02343049255605</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.042568973731422</v>
+        <v>1.138687233517191</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.718720595105038</v>
+        <v>-6.994683337756819</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.949843380793326</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.552912946322335</v>
+        <v>-9.814935569801557</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.037777190891351</v>
+        <v>1.095679018682121</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.647760313702883</v>
+        <v>-6.784591154055641</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.540099040351325</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.63387574709557</v>
+        <v>-9.836158192707995</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.104259904721635</v>
+        <v>0.9742086329165864</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.517020577525407</v>
+        <v>-6.57743164619101</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.162726985712376</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.831386227765849</v>
+        <v>-9.948477058787162</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.168451465554619</v>
+        <v>0.8518217859521311</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.428726087160806</v>
+        <v>-6.361840695296307</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.827165906368641</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.286566320664139</v>
+        <v>-10.18259361820291</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.191192795590697</v>
+        <v>0.7136587140633959</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.390994070370952</v>
+        <v>-6.156226079166998</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.532435249355104</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.675957591782756</v>
+        <v>-10.32930596384729</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.249793943110262</v>
+        <v>0.6465082927881829</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.326959617172069</v>
+        <v>-5.95387144644528</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.281292607213791</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.994663519858893</v>
+        <v>-10.46780943560991</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.309246090314541</v>
+        <v>0.5758360420485455</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.185588931087111</v>
+        <v>-5.681538455034537</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.065533595044285</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.649854723270233</v>
+        <v>-10.90907241058745</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.352647074234863</v>
+        <v>0.5499656516332949</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.10987614375341</v>
+        <v>-5.496295462126954</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.883516259247654</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.43463354020898</v>
+        <v>-11.48704521183829</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.500825757797518</v>
+        <v>0.3880531423896686</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.073754480213087</v>
+        <v>-5.30094521142556</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.724257103416306</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.25574349753351</v>
+        <v>-12.10618021322351</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.506206694265467</v>
+        <v>0.3628504594193459</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.908477249139137</v>
+        <v>-4.957966153880862</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.585132577700257</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.7613158640696</v>
+        <v>-12.42341980338137</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.523161226445503</v>
+        <v>0.264723649620609</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.825576787545328</v>
+        <v>-4.694025328591665</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.454657709872467</v>
       </c>
       <c r="E81" t="n">
-        <v>-12.57145447161277</v>
+        <v>-12.98564256431362</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.545483602790646</v>
+        <v>0.2381593671547468</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.606856776271452</v>
+        <v>-4.418563276801748</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.330012877671275</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.52470504151885</v>
+        <v>-13.8151446877597</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.52511197956892</v>
+        <v>0.2222260345963662</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.398335668911281</v>
+        <v>-4.145130531952299</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.202269868088244</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.47558590461057</v>
+        <v>-14.49612772776924</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.582966865826507</v>
+        <v>0.1268617006972335</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.283201957721142</v>
+        <v>-3.84302564387947</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.070573532836737</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.47426676537743</v>
+        <v>-15.35335934863409</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.609099102298593</v>
+        <v>0.05476238894784807</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.15196471403568</v>
+        <v>-3.650568792106097</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.930718501519632</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.48560788299225</v>
+        <v>-16.22876308584327</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.604765550057981</v>
+        <v>-0.01140610961423548</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.954833910147811</v>
+        <v>-3.424019583732869</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-1.78542801808942</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.75361050551626</v>
+        <v>-17.36941687862581</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.672400386538338</v>
+        <v>-0.1161052554395189</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.822051774727025</v>
+        <v>-3.256490476570142</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.636287376831203</v>
       </c>
       <c r="E87" t="n">
-        <v>-19.04152652066254</v>
+        <v>-18.56960137242968</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.516863828778633</v>
+        <v>-0.08827101959800923</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.571425821427863</v>
+        <v>-3.009163783587095</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.489688490075419</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.52153280310262</v>
+        <v>-19.89374378953901</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.439579965103924</v>
+        <v>-0.06588318173865766</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.444522129983012</v>
+        <v>-2.966692353168536</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.351990236772166</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.03660027255284</v>
+        <v>-21.24284013586468</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.477691658676188</v>
+        <v>-0.1850624145068901</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.390594934577942</v>
+        <v>-2.923121169311271</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.231927887768048</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.71897428001748</v>
+        <v>-22.70341744088763</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.292003527471987</v>
+        <v>-0.149935765982539</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.30782539601255</v>
+        <v>-2.856507532452569</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.139589266346705</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.47404984516223</v>
+        <v>-24.20463325393131</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.25584258702314</v>
+        <v>-0.2267352144521041</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.265223042565573</v>
+        <v>-2.926629906472854</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.08405384695805</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.42376867665492</v>
+        <v>-25.95705108159919</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.22049336935048</v>
+        <v>-0.3547910285470268</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.430264612188372</v>
+        <v>-3.054384597602417</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.07569501160985</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.27500720617214</v>
+        <v>-27.62394998710491</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.321238639717562</v>
+        <v>-0.5991064918764769</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.390398550035317</v>
+        <v>-3.028330914947382</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.119488637127235</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.25592499533666</v>
+        <v>-29.34764330233804</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.178061215840445</v>
+        <v>-0.6053122434234551</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.496406926144772</v>
+        <v>-3.184220964883814</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.21940264640778</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.1987572755346</v>
+        <v>-31.17209498024109</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.248969128031234</v>
+        <v>-0.801369478478303</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.405624898240244</v>
+        <v>-3.249368263824243</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.376381771574516</v>
       </c>
       <c r="E96" t="n">
-        <v>-35.37980400593775</v>
+        <v>-33.26997940299359</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.304035353783534</v>
+        <v>-0.9456728403998077</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.549522398773655</v>
+        <v>-3.42789490537402</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.584237374234451</v>
       </c>
       <c r="E97" t="n">
-        <v>-37.68137847630182</v>
+        <v>-35.30707626365196</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.270649981537132</v>
+        <v>-0.9903175930900936</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.745055941714834</v>
+        <v>-3.606421546923797</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.841941926450481</v>
       </c>
       <c r="E98" t="n">
-        <v>-39.96289553871237</v>
+        <v>-37.42148317259072</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.217298847457098</v>
+        <v>-1.119394606806671</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.911786418404215</v>
+        <v>-3.915373709382848</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.127872591665751</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.09282991882142</v>
+        <v>-39.49343174341377</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.322953731389828</v>
+        <v>-1.167535004355698</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.123462770749242</v>
+        <v>-4.258981197463949</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.444931490622514</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.46573125506723</v>
+        <v>-41.78619509396535</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.188063735211524</v>
+        <v>-1.121751221318182</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.23654099039323</v>
+        <v>-4.286501218037257</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.747083917803649</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.65791953518868</v>
+        <v>-43.89400348227188</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.242658638061522</v>
+        <v>-1.25334195718037</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.698214865501017</v>
+        <v>-4.614672881067963</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.064423649089965</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.01935201414513</v>
+        <v>-46.25785803725405</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.379512479666084</v>
+        <v>-1.361039240356409</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.956002308454603</v>
+        <v>-4.83818467518191</v>
       </c>
     </row>
   </sheetData>
